--- a/Лікарі_київ.xlsx
+++ b/Лікарі_київ.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{466D88C7-43DB-4ED5-A9C7-AA7D58447C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA804532-13A6-452D-9CE7-494E2227F8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9C2AC171-867E-4D8B-8123-CDAE70E75BC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{9C2AC171-867E-4D8B-8123-CDAE70E75BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="r1" sheetId="2" r:id="rId2"/>
+    <sheet name="r2" sheetId="3" r:id="rId3"/>
+    <sheet name="r3" sheetId="4" r:id="rId4"/>
+    <sheet name="r4" sheetId="5" r:id="rId5"/>
+    <sheet name="r5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="55">
   <si>
     <t>м. Київ вул. Ентузіастів 47</t>
   </si>
@@ -123,14 +128,100 @@
   </si>
   <si>
     <t>Аль-Сехлі С. М.</t>
+  </si>
+  <si>
+    <t>Лікар</t>
+  </si>
+  <si>
+    <t>Потрібна кількість</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>6.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -164,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -196,11 +287,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -208,6 +314,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -542,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DAA445-7063-476F-B9E1-53FE283CDA4B}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="C1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,9 +664,12 @@
     <col min="2" max="2" width="16.26953125" customWidth="1"/>
     <col min="3" max="3" width="26.26953125" customWidth="1"/>
     <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="22.26953125" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,8 +682,22 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -583,8 +710,22 @@
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,8 +738,22 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -611,8 +766,22 @@
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,8 +794,22 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -639,8 +822,22 @@
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,8 +850,22 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -667,8 +878,22 @@
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,8 +906,22 @@
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -695,8 +934,22 @@
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,8 +962,22 @@
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -723,8 +990,22 @@
       <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,8 +1018,22 @@
       <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
@@ -751,8 +1046,22 @@
       <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,8 +1074,22 @@
       <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -1324,6 +1647,2941 @@
       </c>
       <c r="D55" s="6" t="s">
         <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DEBF49-698B-4F77-9F6E-44A9BC514BA9}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7658B457-43CE-4CE4-81BA-ACB7F58CA258}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E5BCD3-3CC1-498C-AE4A-0E672AFA7739}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85319589-BE7D-4E25-AF3B-7F39282EBEAC}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F542F46-1F6E-4240-A169-15ABF4EAFFB1}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
